--- a/VRPTWMS/instances/test/Creater.xlsx
+++ b/VRPTWMS/instances/test/Creater.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="28515" windowHeight="14370" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="28515" windowHeight="14370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Times Distribution" sheetId="2" r:id="rId1"/>
@@ -294,11 +294,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -481,25 +482,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62674048"/>
-        <c:axId val="61813120"/>
+        <c:axId val="53232768"/>
+        <c:axId val="53234304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62674048"/>
+        <c:axId val="53232768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61813120"/>
+        <c:crossAx val="53234304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61813120"/>
+        <c:axId val="53234304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -507,7 +508,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62674048"/>
+        <c:crossAx val="53232768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -521,7 +522,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -850,7 +851,7 @@
   <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="A2" sqref="A2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -873,7 +874,18 @@
       <c r="B2" s="2">
         <v>0.04</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="C2" s="4">
+        <f>B2*106.382978723404</f>
+        <v>4.2553191489361595</v>
+      </c>
+      <c r="D2" s="3">
+        <f>ROUND(C2,2)</f>
+        <v>4.26</v>
+      </c>
+      <c r="E2">
+        <f>D2+E1</f>
+        <v>4.26</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -882,7 +894,18 @@
       <c r="B3" s="2">
         <v>0.18</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C9" si="0">B3*106.382978723404</f>
+        <v>19.148936170212718</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D9" si="1">ROUND(C3,2)</f>
+        <v>19.149999999999999</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="2">D3+E2</f>
+        <v>23.409999999999997</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
@@ -891,7 +914,18 @@
       <c r="B4" s="2">
         <v>0.06</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>6.3829787234042392</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="1"/>
+        <v>6.38</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>29.789999999999996</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
@@ -900,7 +934,18 @@
       <c r="B5" s="2">
         <v>0.03</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>3.1914893617021196</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="1"/>
+        <v>3.19</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>32.979999999999997</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
@@ -909,7 +954,18 @@
       <c r="B6" s="2">
         <v>0.09</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>9.5744680851063588</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>9.57</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>42.55</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
@@ -918,7 +974,18 @@
       <c r="B7" s="2">
         <v>0.34</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>36.170212765957359</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>36.17</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>78.72</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
@@ -927,7 +994,18 @@
       <c r="B8" s="2">
         <v>0.04</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>4.2553191489361595</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>4.26</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>82.98</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
@@ -936,7 +1014,18 @@
       <c r="B9" s="2">
         <v>0.16</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>17.021276595744638</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>17.02</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
@@ -952,10 +1041,14 @@
         <v>24</v>
       </c>
       <c r="B11" s="2">
-        <f>SUM(B2:B8)</f>
-        <v>0.78</v>
-      </c>
-      <c r="D11" s="2"/>
+        <f>SUM(B2:B9)</f>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="4">
+        <f>SUM(D2:D9)</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
@@ -981,7 +1074,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" s="3">
         <v>8</v>
@@ -1006,12 +1099,12 @@
         <v>12</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" ref="D16:D21" si="0">MROUND(B3+(SUM($B$9:$B$10)*B3/$B$11),0.01)</f>
-        <v>0.23</v>
+        <f t="shared" ref="D16:D21" si="3">MROUND(B3+(SUM($B$9:$B$10)*B3/$B$11),0.01)</f>
+        <v>0.22</v>
       </c>
       <c r="E16" s="1">
         <f>D16+E15</f>
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1025,12 +1118,12 @@
         <v>14</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>0.08</v>
+        <f t="shared" si="3"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" ref="E17:E21" si="1">D17+E16</f>
-        <v>0.36000000000000004</v>
+        <f t="shared" ref="E17:E21" si="4">D17+E16</f>
+        <v>0.34</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1044,12 +1137,12 @@
         <v>16</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
+        <f t="shared" si="4"/>
+        <v>0.38</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1063,12 +1156,12 @@
         <v>18</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>0.12</v>
+        <f t="shared" si="3"/>
+        <v>0.11</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>0.52</v>
+        <f t="shared" si="4"/>
+        <v>0.49</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1082,12 +1175,12 @@
         <v>20</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>0.44</v>
+        <f t="shared" si="3"/>
+        <v>0.42</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>0.96</v>
+        <f t="shared" si="4"/>
+        <v>0.90999999999999992</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1101,12 +1194,12 @@
         <v>22</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
-        <v>1.01</v>
+        <f t="shared" si="4"/>
+        <v>0.96</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1118,7 +1211,7 @@
       </c>
       <c r="C24">
         <f>IF(B24&lt;=$E$15,$B$15,IF(B24&lt;=$E$16,$B$16,IF(B24&lt;=$E$17,$B$17,IF(B24&lt;=$E$18,$B$18,IF(B24&lt;=$E$19,$B$19,IF(B24&lt;=$E$20,$B$20,IF(B24&lt;=$E$21,$B$21,0)))))))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24">
         <f>IF(B24&lt;=$E$15,$C$15,IF(B24&lt;=$E$16,$C$16,IF(B24&lt;=$E$17,$C$17,IF(B24&lt;=$E$18,$C$18,IF(B24&lt;=$E$19,$C$19,IF(B24&lt;=$E$20,$C$20,IF(B24&lt;=$E$21,$C$21,0)))))))</f>
@@ -1133,11 +1226,11 @@
         <v>0.02</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:C88" si="2">IF(B25&lt;=$E$15,$B$15,IF(B25&lt;=$E$16,$B$16,IF(B25&lt;=$E$17,$B$17,IF(B25&lt;=$E$18,$B$18,IF(B25&lt;=$E$19,$B$19,IF(B25&lt;=$E$20,$B$20,IF(B25&lt;=$E$21,$B$21,0)))))))</f>
-        <v>6</v>
+        <f t="shared" ref="C25:C88" si="5">IF(B25&lt;=$E$15,$B$15,IF(B25&lt;=$E$16,$B$16,IF(B25&lt;=$E$17,$B$17,IF(B25&lt;=$E$18,$B$18,IF(B25&lt;=$E$19,$B$19,IF(B25&lt;=$E$20,$B$20,IF(B25&lt;=$E$21,$B$21,0)))))))</f>
+        <v>7</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25:D88" si="3">IF(B25&lt;=$E$15,$C$15,IF(B25&lt;=$E$16,$C$16,IF(B25&lt;=$E$17,$C$17,IF(B25&lt;=$E$18,$C$18,IF(B25&lt;=$E$19,$C$19,IF(B25&lt;=$E$20,$C$20,IF(B25&lt;=$E$21,$C$21,0)))))))</f>
+        <f t="shared" ref="D25:D88" si="6">IF(B25&lt;=$E$15,$C$15,IF(B25&lt;=$E$16,$C$16,IF(B25&lt;=$E$17,$C$17,IF(B25&lt;=$E$18,$C$18,IF(B25&lt;=$E$19,$C$19,IF(B25&lt;=$E$20,$C$20,IF(B25&lt;=$E$21,$C$21,0)))))))</f>
         <v>8</v>
       </c>
     </row>
@@ -1149,11 +1242,11 @@
         <v>0.03</v>
       </c>
       <c r="C26">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="D26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -1165,11 +1258,11 @@
         <v>0.04</v>
       </c>
       <c r="C27">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="D27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -1181,11 +1274,11 @@
         <v>0.05</v>
       </c>
       <c r="C28">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="D28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -1197,11 +1290,11 @@
         <v>0.06</v>
       </c>
       <c r="C29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -1213,11 +1306,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -1229,11 +1322,11 @@
         <v>0.08</v>
       </c>
       <c r="C31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -1245,11 +1338,11 @@
         <v>0.09</v>
       </c>
       <c r="C32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -1261,11 +1354,11 @@
         <v>0.1</v>
       </c>
       <c r="C33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -1277,11 +1370,11 @@
         <v>0.11</v>
       </c>
       <c r="C34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -1293,11 +1386,11 @@
         <v>0.12</v>
       </c>
       <c r="C35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -1309,11 +1402,11 @@
         <v>0.13</v>
       </c>
       <c r="C36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -1325,11 +1418,11 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -1341,11 +1434,11 @@
         <v>0.15</v>
       </c>
       <c r="C38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -1357,11 +1450,11 @@
         <v>0.16</v>
       </c>
       <c r="C39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -1373,11 +1466,11 @@
         <v>0.17</v>
       </c>
       <c r="C40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -1389,11 +1482,11 @@
         <v>0.18</v>
       </c>
       <c r="C41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -1405,11 +1498,11 @@
         <v>0.19</v>
       </c>
       <c r="C42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -1421,11 +1514,11 @@
         <v>0.2</v>
       </c>
       <c r="C43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -1437,11 +1530,11 @@
         <v>0.21</v>
       </c>
       <c r="C44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -1453,11 +1546,11 @@
         <v>0.22</v>
       </c>
       <c r="C45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -1469,11 +1562,11 @@
         <v>0.23</v>
       </c>
       <c r="C46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -1485,11 +1578,11 @@
         <v>0.24</v>
       </c>
       <c r="C47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -1501,11 +1594,11 @@
         <v>0.25</v>
       </c>
       <c r="C48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -1517,11 +1610,11 @@
         <v>0.26</v>
       </c>
       <c r="C49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -1533,11 +1626,11 @@
         <v>0.27</v>
       </c>
       <c r="C50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -1549,12 +1642,12 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C51">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="D51">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1565,11 +1658,11 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="C52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="D52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
@@ -1581,11 +1674,11 @@
         <v>0.3</v>
       </c>
       <c r="C53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="D53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
@@ -1597,11 +1690,11 @@
         <v>0.31</v>
       </c>
       <c r="C54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="D54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
@@ -1613,11 +1706,11 @@
         <v>0.32</v>
       </c>
       <c r="C55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="D55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
@@ -1629,11 +1722,11 @@
         <v>0.33</v>
       </c>
       <c r="C56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="D56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
@@ -1645,11 +1738,11 @@
         <v>0.34</v>
       </c>
       <c r="C57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="D57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
@@ -1661,12 +1754,12 @@
         <v>0.35</v>
       </c>
       <c r="C58">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="D58">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1677,12 +1770,12 @@
         <v>0.36</v>
       </c>
       <c r="C59">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="D59">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1693,11 +1786,11 @@
         <v>0.37</v>
       </c>
       <c r="C60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="D60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
     </row>
@@ -1709,11 +1802,11 @@
         <v>0.38</v>
       </c>
       <c r="C61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="D61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
     </row>
@@ -1725,12 +1818,12 @@
         <v>0.39</v>
       </c>
       <c r="C62">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="D62">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1741,12 +1834,12 @@
         <v>0.4</v>
       </c>
       <c r="C63">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="D63">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1757,11 +1850,11 @@
         <v>0.41</v>
       </c>
       <c r="C64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="D64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -1773,11 +1866,11 @@
         <v>0.42</v>
       </c>
       <c r="C65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="D65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -1789,11 +1882,11 @@
         <v>0.43</v>
       </c>
       <c r="C66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="D66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -1805,11 +1898,11 @@
         <v>0.44</v>
       </c>
       <c r="C67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="D67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -1821,11 +1914,11 @@
         <v>0.45</v>
       </c>
       <c r="C68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="D68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -1837,11 +1930,11 @@
         <v>0.46</v>
       </c>
       <c r="C69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="D69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -1853,11 +1946,11 @@
         <v>0.47</v>
       </c>
       <c r="C70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="D70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -1869,11 +1962,11 @@
         <v>0.48</v>
       </c>
       <c r="C71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="D71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -1885,11 +1978,11 @@
         <v>0.49</v>
       </c>
       <c r="C72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="D72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -1901,12 +1994,12 @@
         <v>0.5</v>
       </c>
       <c r="C73">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="D73">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1917,12 +2010,12 @@
         <v>0.51</v>
       </c>
       <c r="C74">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="D74">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1933,12 +2026,12 @@
         <v>0.52</v>
       </c>
       <c r="C75">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="D75">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1949,11 +2042,11 @@
         <v>0.53</v>
       </c>
       <c r="C76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="D76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -1965,11 +2058,11 @@
         <v>0.54</v>
       </c>
       <c r="C77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="D77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -1981,11 +2074,11 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="C78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="D78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -1997,11 +2090,11 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="C79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="D79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -2013,11 +2106,11 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="C80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="D80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -2029,11 +2122,11 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="C81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="D81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -2045,11 +2138,11 @@
         <v>0.59</v>
       </c>
       <c r="C82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="D82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -2061,11 +2154,11 @@
         <v>0.6</v>
       </c>
       <c r="C83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="D83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -2077,11 +2170,11 @@
         <v>0.61</v>
       </c>
       <c r="C84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="D84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -2093,11 +2186,11 @@
         <v>0.62</v>
       </c>
       <c r="C85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="D85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -2109,11 +2202,11 @@
         <v>0.63</v>
       </c>
       <c r="C86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="D86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -2125,11 +2218,11 @@
         <v>0.64</v>
       </c>
       <c r="C87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="D87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -2141,11 +2234,11 @@
         <v>0.65</v>
       </c>
       <c r="C88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="D88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -2157,11 +2250,11 @@
         <v>0.66</v>
       </c>
       <c r="C89">
-        <f t="shared" ref="C89:C123" si="4">IF(B89&lt;=$E$15,$B$15,IF(B89&lt;=$E$16,$B$16,IF(B89&lt;=$E$17,$B$17,IF(B89&lt;=$E$18,$B$18,IF(B89&lt;=$E$19,$B$19,IF(B89&lt;=$E$20,$B$20,IF(B89&lt;=$E$21,$B$21,0)))))))</f>
+        <f t="shared" ref="C89:C123" si="7">IF(B89&lt;=$E$15,$B$15,IF(B89&lt;=$E$16,$B$16,IF(B89&lt;=$E$17,$B$17,IF(B89&lt;=$E$18,$B$18,IF(B89&lt;=$E$19,$B$19,IF(B89&lt;=$E$20,$B$20,IF(B89&lt;=$E$21,$B$21,0)))))))</f>
         <v>18</v>
       </c>
       <c r="D89">
-        <f t="shared" ref="D89:D123" si="5">IF(B89&lt;=$E$15,$C$15,IF(B89&lt;=$E$16,$C$16,IF(B89&lt;=$E$17,$C$17,IF(B89&lt;=$E$18,$C$18,IF(B89&lt;=$E$19,$C$19,IF(B89&lt;=$E$20,$C$20,IF(B89&lt;=$E$21,$C$21,0)))))))</f>
+        <f t="shared" ref="D89:D123" si="8">IF(B89&lt;=$E$15,$C$15,IF(B89&lt;=$E$16,$C$16,IF(B89&lt;=$E$17,$C$17,IF(B89&lt;=$E$18,$C$18,IF(B89&lt;=$E$19,$C$19,IF(B89&lt;=$E$20,$C$20,IF(B89&lt;=$E$21,$C$21,0)))))))</f>
         <v>20</v>
       </c>
     </row>
@@ -2173,11 +2266,11 @@
         <v>0.67</v>
       </c>
       <c r="C90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="D90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -2189,11 +2282,11 @@
         <v>0.68</v>
       </c>
       <c r="C91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="D91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -2205,11 +2298,11 @@
         <v>0.69</v>
       </c>
       <c r="C92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="D92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -2221,11 +2314,11 @@
         <v>0.7</v>
       </c>
       <c r="C93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="D93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -2237,11 +2330,11 @@
         <v>0.71</v>
       </c>
       <c r="C94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="D94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -2253,11 +2346,11 @@
         <v>0.72</v>
       </c>
       <c r="C95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="D95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -2269,11 +2362,11 @@
         <v>0.73</v>
       </c>
       <c r="C96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="D96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -2285,11 +2378,11 @@
         <v>0.74</v>
       </c>
       <c r="C97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="D97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -2301,11 +2394,11 @@
         <v>0.75</v>
       </c>
       <c r="C98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="D98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -2317,11 +2410,11 @@
         <v>0.76</v>
       </c>
       <c r="C99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="D99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -2333,11 +2426,11 @@
         <v>0.77</v>
       </c>
       <c r="C100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="D100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -2349,11 +2442,11 @@
         <v>0.78</v>
       </c>
       <c r="C101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="D101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -2365,11 +2458,11 @@
         <v>0.79</v>
       </c>
       <c r="C102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="D102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -2381,11 +2474,11 @@
         <v>0.8</v>
       </c>
       <c r="C103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="D103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -2397,11 +2490,11 @@
         <v>0.81</v>
       </c>
       <c r="C104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="D104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -2413,11 +2506,11 @@
         <v>0.82</v>
       </c>
       <c r="C105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="D105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -2429,11 +2522,11 @@
         <v>0.83</v>
       </c>
       <c r="C106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="D106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -2445,11 +2538,11 @@
         <v>0.84</v>
       </c>
       <c r="C107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="D107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -2461,11 +2554,11 @@
         <v>0.85</v>
       </c>
       <c r="C108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="D108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -2477,11 +2570,11 @@
         <v>0.86</v>
       </c>
       <c r="C109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="D109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -2493,11 +2586,11 @@
         <v>0.87</v>
       </c>
       <c r="C110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="D110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -2509,11 +2602,11 @@
         <v>0.88</v>
       </c>
       <c r="C111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="D111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -2525,11 +2618,11 @@
         <v>0.89</v>
       </c>
       <c r="C112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="D112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -2541,11 +2634,11 @@
         <v>0.9</v>
       </c>
       <c r="C113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="D113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -2557,11 +2650,11 @@
         <v>0.91</v>
       </c>
       <c r="C114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="D114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -2573,12 +2666,12 @@
         <v>0.92</v>
       </c>
       <c r="C115">
-        <f t="shared" si="4"/>
-        <v>18</v>
+        <f t="shared" si="7"/>
+        <v>20</v>
       </c>
       <c r="D115">
-        <f t="shared" si="5"/>
-        <v>20</v>
+        <f t="shared" si="8"/>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2589,12 +2682,12 @@
         <v>0.93</v>
       </c>
       <c r="C116">
-        <f t="shared" si="4"/>
-        <v>18</v>
+        <f t="shared" si="7"/>
+        <v>20</v>
       </c>
       <c r="D116">
-        <f t="shared" si="5"/>
-        <v>20</v>
+        <f t="shared" si="8"/>
+        <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2605,12 +2698,12 @@
         <v>0.94</v>
       </c>
       <c r="C117">
-        <f t="shared" si="4"/>
-        <v>18</v>
+        <f t="shared" si="7"/>
+        <v>20</v>
       </c>
       <c r="D117">
-        <f t="shared" si="5"/>
-        <v>20</v>
+        <f t="shared" si="8"/>
+        <v>22</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2621,12 +2714,12 @@
         <v>0.95</v>
       </c>
       <c r="C118">
-        <f t="shared" si="4"/>
-        <v>18</v>
+        <f t="shared" si="7"/>
+        <v>20</v>
       </c>
       <c r="D118">
-        <f t="shared" si="5"/>
-        <v>20</v>
+        <f t="shared" si="8"/>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2637,12 +2730,12 @@
         <v>0.96</v>
       </c>
       <c r="C119">
-        <f t="shared" si="4"/>
-        <v>18</v>
+        <f t="shared" si="7"/>
+        <v>20</v>
       </c>
       <c r="D119">
-        <f t="shared" si="5"/>
-        <v>20</v>
+        <f t="shared" si="8"/>
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2653,12 +2746,12 @@
         <v>0.97</v>
       </c>
       <c r="C120">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="D120">
-        <f t="shared" si="5"/>
-        <v>22</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2669,12 +2762,12 @@
         <v>0.98</v>
       </c>
       <c r="C121">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="D121">
-        <f t="shared" si="5"/>
-        <v>22</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2685,12 +2778,12 @@
         <v>0.99</v>
       </c>
       <c r="C122">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="D122">
-        <f t="shared" si="5"/>
-        <v>22</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2701,12 +2794,12 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="D123">
-        <f t="shared" si="5"/>
-        <v>22</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2762,31 +2855,31 @@
       </c>
       <c r="C3">
         <f ca="1">RANDBETWEEN(1,50)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D3">
         <f ca="1">RANDBETWEEN(1,50)</f>
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <f ca="1">RANDBETWEEN(2,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <f ca="1">VLOOKUP(I3,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3">
         <f ca="1">VLOOKUP(I3,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2798,31 +2891,31 @@
       </c>
       <c r="C4">
         <f t="shared" ref="C4:D19" ca="1" si="0">RANDBETWEEN(1,50)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E52" ca="1" si="1">RANDBETWEEN(2,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <f ca="1">VLOOKUP(I4,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <f ca="1">VLOOKUP(I4,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H52" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I52" ca="1" si="3">RANDBETWEEN(1,100)</f>
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2834,31 +2927,31 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <f ca="1">VLOOKUP(I5,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5">
         <f ca="1">VLOOKUP(I5,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2870,15 +2963,15 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <f ca="1">VLOOKUP(I6,'Times Distribution'!$A$24:$D$123,3)</f>
@@ -2890,11 +2983,11 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2906,31 +2999,31 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <f ca="1">VLOOKUP(I7,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <f ca="1">VLOOKUP(I7,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2942,11 +3035,11 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
@@ -2954,19 +3047,19 @@
       </c>
       <c r="F8">
         <f ca="1">VLOOKUP(I8,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G8">
         <f ca="1">VLOOKUP(I8,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2978,31 +3071,31 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <f ca="1">VLOOKUP(I9,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G9">
         <f ca="1">VLOOKUP(I9,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3014,31 +3107,31 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <f ca="1">VLOOKUP(I10,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G10">
         <f ca="1">VLOOKUP(I10,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3050,31 +3143,31 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <f ca="1">VLOOKUP(I11,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <f ca="1">VLOOKUP(I11,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3086,31 +3179,31 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <f ca="1">VLOOKUP(I12,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <f ca="1">VLOOKUP(I12,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3122,23 +3215,23 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <f ca="1">VLOOKUP(I13,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G13">
         <f ca="1">VLOOKUP(I13,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="2"/>
@@ -3146,7 +3239,7 @@
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3158,15 +3251,15 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <f ca="1">VLOOKUP(I14,'Times Distribution'!$A$24:$D$123,3)</f>
@@ -3178,11 +3271,11 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3194,15 +3287,15 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15">
         <f ca="1">VLOOKUP(I15,'Times Distribution'!$A$24:$D$123,3)</f>
@@ -3214,11 +3307,11 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3230,15 +3323,15 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <f ca="1">VLOOKUP(I16,'Times Distribution'!$A$24:$D$123,3)</f>
@@ -3250,11 +3343,11 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3266,15 +3359,15 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <f ca="1">VLOOKUP(I17,'Times Distribution'!$A$24:$D$123,3)</f>
@@ -3286,11 +3379,11 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3302,31 +3395,31 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F18">
         <f ca="1">VLOOKUP(I18,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <f ca="1">VLOOKUP(I18,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3338,31 +3431,31 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <f ca="1">VLOOKUP(I19,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G19">
         <f ca="1">VLOOKUP(I19,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3374,15 +3467,15 @@
       </c>
       <c r="C20">
         <f t="shared" ref="C20:D52" ca="1" si="4">RANDBETWEEN(1,50)</f>
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <f ca="1">VLOOKUP(I20,'Times Distribution'!$A$24:$D$123,3)</f>
@@ -3394,11 +3487,11 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3410,23 +3503,23 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <f ca="1">VLOOKUP(I21,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G21">
         <f ca="1">VLOOKUP(I21,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
@@ -3434,7 +3527,7 @@
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3446,31 +3539,31 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="4"/>
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F22">
         <f ca="1">VLOOKUP(I22,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G22">
         <f ca="1">VLOOKUP(I22,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3482,31 +3575,31 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23">
         <f ca="1">VLOOKUP(I23,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23">
         <f ca="1">VLOOKUP(I23,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3518,31 +3611,31 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F24">
         <f ca="1">VLOOKUP(I24,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <f ca="1">VLOOKUP(I24,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3554,11 +3647,11 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
@@ -3566,15 +3659,15 @@
       </c>
       <c r="F25">
         <f ca="1">VLOOKUP(I25,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G25">
         <f ca="1">VLOOKUP(I25,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="3"/>
@@ -3590,31 +3683,31 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F26">
         <f ca="1">VLOOKUP(I26,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G26">
         <f ca="1">VLOOKUP(I26,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3626,31 +3719,31 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F27">
         <f ca="1">VLOOKUP(I27,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G27">
         <f ca="1">VLOOKUP(I27,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3662,15 +3755,15 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F28">
         <f ca="1">VLOOKUP(I28,'Times Distribution'!$A$24:$D$123,3)</f>
@@ -3686,7 +3779,7 @@
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3698,31 +3791,31 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <f ca="1">VLOOKUP(I29,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G29">
         <f ca="1">VLOOKUP(I29,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -3734,11 +3827,11 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
@@ -3746,19 +3839,19 @@
       </c>
       <c r="F30">
         <f ca="1">VLOOKUP(I30,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G30">
         <f ca="1">VLOOKUP(I30,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -3770,15 +3863,15 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F31">
         <f ca="1">VLOOKUP(I31,'Times Distribution'!$A$24:$D$123,3)</f>
@@ -3790,11 +3883,11 @@
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -3806,31 +3899,31 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F32">
         <f ca="1">VLOOKUP(I32,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G32">
         <f ca="1">VLOOKUP(I32,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -3842,15 +3935,15 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33">
         <f ca="1">VLOOKUP(I33,'Times Distribution'!$A$24:$D$123,3)</f>
@@ -3862,11 +3955,11 @@
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -3878,31 +3971,31 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <f ca="1">VLOOKUP(I34,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G34">
         <f ca="1">VLOOKUP(I34,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -3914,31 +4007,31 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="4"/>
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35">
         <f ca="1">VLOOKUP(I35,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G35">
         <f ca="1">VLOOKUP(I35,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -3950,11 +4043,11 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
@@ -3962,19 +4055,19 @@
       </c>
       <c r="F36">
         <f ca="1">VLOOKUP(I36,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G36">
         <f ca="1">VLOOKUP(I36,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -3986,31 +4079,31 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <f ca="1">VLOOKUP(I37,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G37">
         <f ca="1">VLOOKUP(I37,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4022,11 +4115,11 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
@@ -4034,19 +4127,19 @@
       </c>
       <c r="F38">
         <f ca="1">VLOOKUP(I38,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G38">
         <f ca="1">VLOOKUP(I38,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4058,31 +4151,31 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F39">
         <f ca="1">VLOOKUP(I39,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G39">
         <f ca="1">VLOOKUP(I39,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4094,11 +4187,11 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
@@ -4106,11 +4199,11 @@
       </c>
       <c r="F40">
         <f ca="1">VLOOKUP(I40,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G40">
         <f ca="1">VLOOKUP(I40,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="2"/>
@@ -4118,7 +4211,7 @@
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4130,31 +4223,31 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F41">
         <f ca="1">VLOOKUP(I41,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G41">
         <f ca="1">VLOOKUP(I41,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4166,23 +4259,23 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42">
         <f ca="1">VLOOKUP(I42,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G42">
         <f ca="1">VLOOKUP(I42,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="2"/>
@@ -4190,7 +4283,7 @@
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4202,31 +4295,31 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F43">
         <f ca="1">VLOOKUP(I43,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G43">
         <f ca="1">VLOOKUP(I43,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4238,31 +4331,31 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44">
         <f ca="1">VLOOKUP(I44,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G44">
         <f ca="1">VLOOKUP(I44,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4274,31 +4367,31 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45">
         <f ca="1">VLOOKUP(I45,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G45">
         <f ca="1">VLOOKUP(I45,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4310,31 +4403,31 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46">
         <f ca="1">VLOOKUP(I46,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G46">
         <f ca="1">VLOOKUP(I46,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4346,11 +4439,11 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
@@ -4366,11 +4459,11 @@
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4382,15 +4475,15 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F48">
         <f ca="1">VLOOKUP(I48,'Times Distribution'!$A$24:$D$123,3)</f>
@@ -4406,7 +4499,7 @@
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4418,23 +4511,23 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F49">
         <f ca="1">VLOOKUP(I49,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G49">
         <f ca="1">VLOOKUP(I49,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="2"/>
@@ -4442,7 +4535,7 @@
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4454,15 +4547,15 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F50">
         <f ca="1">VLOOKUP(I50,'Times Distribution'!$A$24:$D$123,3)</f>
@@ -4474,11 +4567,11 @@
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4490,31 +4583,31 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51">
         <f ca="1">VLOOKUP(I51,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G51">
         <f ca="1">VLOOKUP(I51,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4526,31 +4619,31 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F52">
         <f ca="1">VLOOKUP(I52,'Times Distribution'!$A$24:$D$123,3)</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G52">
         <f ca="1">VLOOKUP(I52,'Times Distribution'!$A$24:$D$123,4)</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -4562,8 +4655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4613,27 +4706,27 @@
       </c>
       <c r="C2">
         <f ca="1">GENERATION!C3</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <f ca="1">GENERATION!D3</f>
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <f ca="1">GENERATION!E3</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <f ca="1">GENERATION!F3</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2">
         <f ca="1">GENERATION!G3</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <f ca="1">GENERATION!H3</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4647,27 +4740,27 @@
       </c>
       <c r="C3">
         <f ca="1">GENERATION!C4</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <f ca="1">GENERATION!D4</f>
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <f ca="1">GENERATION!E4</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <f ca="1">GENERATION!F4</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <f ca="1">GENERATION!G4</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <f ca="1">GENERATION!H4</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4681,27 +4774,27 @@
       </c>
       <c r="C4">
         <f ca="1">GENERATION!C5</f>
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <f ca="1">GENERATION!D5</f>
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <f ca="1">GENERATION!E5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <f ca="1">GENERATION!F5</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4">
         <f ca="1">GENERATION!G5</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <f ca="1">GENERATION!H5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4715,15 +4808,15 @@
       </c>
       <c r="C5">
         <f ca="1">GENERATION!C6</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <f ca="1">GENERATION!D6</f>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <f ca="1">GENERATION!E6</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <f ca="1">GENERATION!F6</f>
@@ -4735,7 +4828,7 @@
       </c>
       <c r="H5">
         <f ca="1">GENERATION!H6</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4749,27 +4842,27 @@
       </c>
       <c r="C6">
         <f ca="1">GENERATION!C7</f>
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <f ca="1">GENERATION!D7</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <f ca="1">GENERATION!E7</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <f ca="1">GENERATION!F7</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <f ca="1">GENERATION!G7</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <f ca="1">GENERATION!H7</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4783,11 +4876,11 @@
       </c>
       <c r="C7">
         <f ca="1">GENERATION!C8</f>
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <f ca="1">GENERATION!D8</f>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <f ca="1">GENERATION!E8</f>
@@ -4795,15 +4888,15 @@
       </c>
       <c r="F7">
         <f ca="1">GENERATION!F8</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <f ca="1">GENERATION!G8</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H7">
         <f ca="1">GENERATION!H8</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4817,27 +4910,27 @@
       </c>
       <c r="C8">
         <f ca="1">GENERATION!C9</f>
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <f ca="1">GENERATION!D9</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <f ca="1">GENERATION!E9</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <f ca="1">GENERATION!F9</f>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G8">
         <f ca="1">GENERATION!G9</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <f ca="1">GENERATION!H9</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4851,27 +4944,27 @@
       </c>
       <c r="C9">
         <f ca="1">GENERATION!C10</f>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <f ca="1">GENERATION!D10</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <f ca="1">GENERATION!E10</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <f ca="1">GENERATION!F10</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G9">
         <f ca="1">GENERATION!G10</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H9">
         <f ca="1">GENERATION!H10</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4885,27 +4978,27 @@
       </c>
       <c r="C10">
         <f ca="1">GENERATION!C11</f>
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <f ca="1">GENERATION!D11</f>
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <f ca="1">GENERATION!E11</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <f ca="1">GENERATION!F11</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G10">
         <f ca="1">GENERATION!G11</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H10">
         <f ca="1">GENERATION!H11</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4919,27 +5012,27 @@
       </c>
       <c r="C11">
         <f ca="1">GENERATION!C12</f>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <f ca="1">GENERATION!D12</f>
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <f ca="1">GENERATION!E12</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <f ca="1">GENERATION!F12</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <f ca="1">GENERATION!G12</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H11">
         <f ca="1">GENERATION!H12</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4953,23 +5046,23 @@
       </c>
       <c r="C12">
         <f ca="1">GENERATION!C13</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <f ca="1">GENERATION!D13</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12">
         <f ca="1">GENERATION!E13</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <f ca="1">GENERATION!F13</f>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G12">
         <f ca="1">GENERATION!G13</f>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H12">
         <f ca="1">GENERATION!H13</f>
@@ -4987,15 +5080,15 @@
       </c>
       <c r="C13">
         <f ca="1">GENERATION!C14</f>
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <f ca="1">GENERATION!D14</f>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <f ca="1">GENERATION!E14</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <f ca="1">GENERATION!F14</f>
@@ -5007,7 +5100,7 @@
       </c>
       <c r="H13">
         <f ca="1">GENERATION!H14</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5021,15 +5114,15 @@
       </c>
       <c r="C14">
         <f ca="1">GENERATION!C15</f>
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <f ca="1">GENERATION!D15</f>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <f ca="1">GENERATION!E15</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14">
         <f ca="1">GENERATION!F15</f>
@@ -5041,7 +5134,7 @@
       </c>
       <c r="H14">
         <f ca="1">GENERATION!H15</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5055,15 +5148,15 @@
       </c>
       <c r="C15">
         <f ca="1">GENERATION!C16</f>
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <f ca="1">GENERATION!D16</f>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <f ca="1">GENERATION!E16</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <f ca="1">GENERATION!F16</f>
@@ -5075,7 +5168,7 @@
       </c>
       <c r="H15">
         <f ca="1">GENERATION!H16</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5089,15 +5182,15 @@
       </c>
       <c r="C16">
         <f ca="1">GENERATION!C17</f>
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D16">
         <f ca="1">GENERATION!D17</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <f ca="1">GENERATION!E17</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <f ca="1">GENERATION!F17</f>
@@ -5109,7 +5202,7 @@
       </c>
       <c r="H16">
         <f ca="1">GENERATION!H17</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5123,27 +5216,27 @@
       </c>
       <c r="C17">
         <f ca="1">GENERATION!C18</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <f ca="1">GENERATION!D18</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <f ca="1">GENERATION!E18</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F17">
         <f ca="1">GENERATION!F18</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G17">
         <f ca="1">GENERATION!G18</f>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H17">
         <f ca="1">GENERATION!H18</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5157,27 +5250,27 @@
       </c>
       <c r="C18">
         <f ca="1">GENERATION!C19</f>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D18">
         <f ca="1">GENERATION!D19</f>
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <f ca="1">GENERATION!E19</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <f ca="1">GENERATION!F19</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G18">
         <f ca="1">GENERATION!G19</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H18">
         <f ca="1">GENERATION!H19</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -5191,15 +5284,15 @@
       </c>
       <c r="C19">
         <f ca="1">GENERATION!C20</f>
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <f ca="1">GENERATION!D20</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E19">
         <f ca="1">GENERATION!E20</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <f ca="1">GENERATION!F20</f>
@@ -5211,7 +5304,7 @@
       </c>
       <c r="H19">
         <f ca="1">GENERATION!H20</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -5225,23 +5318,23 @@
       </c>
       <c r="C20">
         <f ca="1">GENERATION!C21</f>
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <f ca="1">GENERATION!D21</f>
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E20">
         <f ca="1">GENERATION!E21</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <f ca="1">GENERATION!F21</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G20">
         <f ca="1">GENERATION!G21</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H20">
         <f ca="1">GENERATION!H21</f>
@@ -5259,27 +5352,27 @@
       </c>
       <c r="C21">
         <f ca="1">GENERATION!C22</f>
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D21">
         <f ca="1">GENERATION!D22</f>
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <f ca="1">GENERATION!E22</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F21">
         <f ca="1">GENERATION!F22</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G21">
         <f ca="1">GENERATION!G22</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H21">
         <f ca="1">GENERATION!H22</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -5293,27 +5386,27 @@
       </c>
       <c r="C22">
         <f ca="1">GENERATION!C23</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <f ca="1">GENERATION!D23</f>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <f ca="1">GENERATION!E23</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22">
         <f ca="1">GENERATION!F23</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22">
         <f ca="1">GENERATION!G23</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H22">
         <f ca="1">GENERATION!H23</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -5327,27 +5420,27 @@
       </c>
       <c r="C23">
         <f ca="1">GENERATION!C24</f>
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D23">
         <f ca="1">GENERATION!D24</f>
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <f ca="1">GENERATION!E24</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F23">
         <f ca="1">GENERATION!F24</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <f ca="1">GENERATION!G24</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <f ca="1">GENERATION!H24</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -5361,11 +5454,11 @@
       </c>
       <c r="C24">
         <f ca="1">GENERATION!C25</f>
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D24">
         <f ca="1">GENERATION!D25</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <f ca="1">GENERATION!E25</f>
@@ -5373,15 +5466,15 @@
       </c>
       <c r="F24">
         <f ca="1">GENERATION!F25</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G24">
         <f ca="1">GENERATION!G25</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H24">
         <f ca="1">GENERATION!H25</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -5395,27 +5488,27 @@
       </c>
       <c r="C25">
         <f ca="1">GENERATION!C26</f>
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D25">
         <f ca="1">GENERATION!D26</f>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <f ca="1">GENERATION!E26</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25">
         <f ca="1">GENERATION!F26</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G25">
         <f ca="1">GENERATION!G26</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H25">
         <f ca="1">GENERATION!H26</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -5429,27 +5522,27 @@
       </c>
       <c r="C26">
         <f ca="1">GENERATION!C27</f>
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D26">
         <f ca="1">GENERATION!D27</f>
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E26">
         <f ca="1">GENERATION!E27</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F26">
         <f ca="1">GENERATION!F27</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G26">
         <f ca="1">GENERATION!G27</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H26">
         <f ca="1">GENERATION!H27</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -5463,15 +5556,15 @@
       </c>
       <c r="C27">
         <f ca="1">GENERATION!C28</f>
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D27">
         <f ca="1">GENERATION!D28</f>
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <f ca="1">GENERATION!E28</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F27">
         <f ca="1">GENERATION!F28</f>
@@ -5497,27 +5590,27 @@
       </c>
       <c r="C28">
         <f ca="1">GENERATION!C29</f>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D28">
         <f ca="1">GENERATION!D29</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28">
         <f ca="1">GENERATION!E29</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <f ca="1">GENERATION!F29</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G28">
         <f ca="1">GENERATION!G29</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H28">
         <f ca="1">GENERATION!H29</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -5531,11 +5624,11 @@
       </c>
       <c r="C29">
         <f ca="1">GENERATION!C30</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <f ca="1">GENERATION!D30</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E29">
         <f ca="1">GENERATION!E30</f>
@@ -5543,15 +5636,15 @@
       </c>
       <c r="F29">
         <f ca="1">GENERATION!F30</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G29">
         <f ca="1">GENERATION!G30</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H29">
         <f ca="1">GENERATION!H30</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -5565,15 +5658,15 @@
       </c>
       <c r="C30">
         <f ca="1">GENERATION!C31</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <f ca="1">GENERATION!D31</f>
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E30">
         <f ca="1">GENERATION!E31</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F30">
         <f ca="1">GENERATION!F31</f>
@@ -5585,7 +5678,7 @@
       </c>
       <c r="H30">
         <f ca="1">GENERATION!H31</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -5599,27 +5692,27 @@
       </c>
       <c r="C31">
         <f ca="1">GENERATION!C32</f>
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D31">
         <f ca="1">GENERATION!D32</f>
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="E31">
         <f ca="1">GENERATION!E32</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31">
         <f ca="1">GENERATION!F32</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G31">
         <f ca="1">GENERATION!G32</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H31">
         <f ca="1">GENERATION!H32</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -5633,15 +5726,15 @@
       </c>
       <c r="C32">
         <f ca="1">GENERATION!C33</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D32">
         <f ca="1">GENERATION!D33</f>
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E32">
         <f ca="1">GENERATION!E33</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32">
         <f ca="1">GENERATION!F33</f>
@@ -5653,7 +5746,7 @@
       </c>
       <c r="H32">
         <f ca="1">GENERATION!H33</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -5667,27 +5760,27 @@
       </c>
       <c r="C33">
         <f ca="1">GENERATION!C34</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D33">
         <f ca="1">GENERATION!D34</f>
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <f ca="1">GENERATION!E34</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <f ca="1">GENERATION!F34</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G33">
         <f ca="1">GENERATION!G34</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H33">
         <f ca="1">GENERATION!H34</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -5701,27 +5794,27 @@
       </c>
       <c r="C34">
         <f ca="1">GENERATION!C35</f>
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D34">
         <f ca="1">GENERATION!D35</f>
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E34">
         <f ca="1">GENERATION!E35</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34">
         <f ca="1">GENERATION!F35</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G34">
         <f ca="1">GENERATION!G35</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H34">
         <f ca="1">GENERATION!H35</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -5735,11 +5828,11 @@
       </c>
       <c r="C35">
         <f ca="1">GENERATION!C36</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D35">
         <f ca="1">GENERATION!D36</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <f ca="1">GENERATION!E36</f>
@@ -5747,15 +5840,15 @@
       </c>
       <c r="F35">
         <f ca="1">GENERATION!F36</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G35">
         <f ca="1">GENERATION!G36</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H35">
         <f ca="1">GENERATION!H36</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -5769,27 +5862,27 @@
       </c>
       <c r="C36">
         <f ca="1">GENERATION!C37</f>
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D36">
         <f ca="1">GENERATION!D37</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E36">
         <f ca="1">GENERATION!E37</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <f ca="1">GENERATION!F37</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G36">
         <f ca="1">GENERATION!G37</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H36">
         <f ca="1">GENERATION!H37</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -5803,11 +5896,11 @@
       </c>
       <c r="C37">
         <f ca="1">GENERATION!C38</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D37">
         <f ca="1">GENERATION!D38</f>
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E37">
         <f ca="1">GENERATION!E38</f>
@@ -5815,15 +5908,15 @@
       </c>
       <c r="F37">
         <f ca="1">GENERATION!F38</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G37">
         <f ca="1">GENERATION!G38</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H37">
         <f ca="1">GENERATION!H38</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -5837,27 +5930,27 @@
       </c>
       <c r="C38">
         <f ca="1">GENERATION!C39</f>
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D38">
         <f ca="1">GENERATION!D39</f>
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E38">
         <f ca="1">GENERATION!E39</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F38">
         <f ca="1">GENERATION!F39</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G38">
         <f ca="1">GENERATION!G39</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H38">
         <f ca="1">GENERATION!H39</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -5871,11 +5964,11 @@
       </c>
       <c r="C39">
         <f ca="1">GENERATION!C40</f>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D39">
         <f ca="1">GENERATION!D40</f>
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="E39">
         <f ca="1">GENERATION!E40</f>
@@ -5883,11 +5976,11 @@
       </c>
       <c r="F39">
         <f ca="1">GENERATION!F40</f>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G39">
         <f ca="1">GENERATION!G40</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H39">
         <f ca="1">GENERATION!H40</f>
@@ -5905,27 +5998,27 @@
       </c>
       <c r="C40">
         <f ca="1">GENERATION!C41</f>
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D40">
         <f ca="1">GENERATION!D41</f>
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="E40">
         <f ca="1">GENERATION!E41</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40">
         <f ca="1">GENERATION!F41</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G40">
         <f ca="1">GENERATION!G41</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H40">
         <f ca="1">GENERATION!H41</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -5939,23 +6032,23 @@
       </c>
       <c r="C41">
         <f ca="1">GENERATION!C42</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41">
         <f ca="1">GENERATION!D42</f>
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E41">
         <f ca="1">GENERATION!E42</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41">
         <f ca="1">GENERATION!F42</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G41">
         <f ca="1">GENERATION!G42</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H41">
         <f ca="1">GENERATION!H42</f>
@@ -5973,27 +6066,27 @@
       </c>
       <c r="C42">
         <f ca="1">GENERATION!C43</f>
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D42">
         <f ca="1">GENERATION!D43</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E42">
         <f ca="1">GENERATION!E43</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F42">
         <f ca="1">GENERATION!F43</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G42">
         <f ca="1">GENERATION!G43</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H42">
         <f ca="1">GENERATION!H43</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6007,27 +6100,27 @@
       </c>
       <c r="C43">
         <f ca="1">GENERATION!C44</f>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D43">
         <f ca="1">GENERATION!D44</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E43">
         <f ca="1">GENERATION!E44</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43">
         <f ca="1">GENERATION!F44</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G43">
         <f ca="1">GENERATION!G44</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H43">
         <f ca="1">GENERATION!H44</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6041,27 +6134,27 @@
       </c>
       <c r="C44">
         <f ca="1">GENERATION!C45</f>
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D44">
         <f ca="1">GENERATION!D45</f>
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="E44">
         <f ca="1">GENERATION!E45</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44">
         <f ca="1">GENERATION!F45</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G44">
         <f ca="1">GENERATION!G45</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H44">
         <f ca="1">GENERATION!H45</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6075,27 +6168,27 @@
       </c>
       <c r="C45">
         <f ca="1">GENERATION!C46</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D45">
         <f ca="1">GENERATION!D46</f>
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E45">
         <f ca="1">GENERATION!E46</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45">
         <f ca="1">GENERATION!F46</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G45">
         <f ca="1">GENERATION!G46</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H45">
         <f ca="1">GENERATION!H46</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6109,11 +6202,11 @@
       </c>
       <c r="C46">
         <f ca="1">GENERATION!C47</f>
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D46">
         <f ca="1">GENERATION!D47</f>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E46">
         <f ca="1">GENERATION!E47</f>
@@ -6129,7 +6222,7 @@
       </c>
       <c r="H46">
         <f ca="1">GENERATION!H47</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6143,15 +6236,15 @@
       </c>
       <c r="C47">
         <f ca="1">GENERATION!C48</f>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D47">
         <f ca="1">GENERATION!D48</f>
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="E47">
         <f ca="1">GENERATION!E48</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F47">
         <f ca="1">GENERATION!F48</f>
@@ -6177,23 +6270,23 @@
       </c>
       <c r="C48">
         <f ca="1">GENERATION!C49</f>
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D48">
         <f ca="1">GENERATION!D49</f>
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E48">
         <f ca="1">GENERATION!E49</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F48">
         <f ca="1">GENERATION!F49</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G48">
         <f ca="1">GENERATION!G49</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H48">
         <f ca="1">GENERATION!H49</f>
@@ -6211,15 +6304,15 @@
       </c>
       <c r="C49">
         <f ca="1">GENERATION!C50</f>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D49">
         <f ca="1">GENERATION!D50</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E49">
         <f ca="1">GENERATION!E50</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49">
         <f ca="1">GENERATION!F50</f>
@@ -6231,7 +6324,7 @@
       </c>
       <c r="H49">
         <f ca="1">GENERATION!H50</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -6245,27 +6338,27 @@
       </c>
       <c r="C50">
         <f ca="1">GENERATION!C51</f>
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D50">
         <f ca="1">GENERATION!D51</f>
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E50">
         <f ca="1">GENERATION!E51</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50">
         <f ca="1">GENERATION!F51</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G50">
         <f ca="1">GENERATION!G51</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H50">
         <f ca="1">GENERATION!H51</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -6279,27 +6372,27 @@
       </c>
       <c r="C51">
         <f ca="1">GENERATION!C52</f>
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D51">
         <f ca="1">GENERATION!D52</f>
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E51">
         <f ca="1">GENERATION!E52</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F51">
         <f ca="1">GENERATION!F52</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G51">
         <f ca="1">GENERATION!G52</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H51">
         <f ca="1">GENERATION!H52</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6311,7 +6404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
